--- a/biology/Zoologie/Hippopotamus_major/Hippopotamus_major.xlsx
+++ b/biology/Zoologie/Hippopotamus_major/Hippopotamus_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippopotamus major est une espèce éteinte d'hippopotames trouvée dans les sites fossiles du Pléistocène en Europe et en Grande-Bretagne[1]. Hippopotamus major est l'une des espèces d'hippopotames les plus grandes et les plus septentrionales qui aient jamais vécu. Comme de nombreuses mégafaunes qui habitaient les régions septentrionales du monde pendant la période glaciaire du Pléistocène, Hippopotamus major était probablement plus velu que ses parents modernes d'Afrique et d'Asie du Sud. Avec une masse estimée à 4 000 kg voire plus, H. major était en moyenne plus gros que l'actuel Hippopotamus amphibius[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippopotamus major est une espèce éteinte d'hippopotames trouvée dans les sites fossiles du Pléistocène en Europe et en Grande-Bretagne. Hippopotamus major est l'une des espèces d'hippopotames les plus grandes et les plus septentrionales qui aient jamais vécu. Comme de nombreuses mégafaunes qui habitaient les régions septentrionales du monde pendant la période glaciaire du Pléistocène, Hippopotamus major était probablement plus velu que ses parents modernes d'Afrique et d'Asie du Sud. Avec une masse estimée à 4 000 kg voire plus, H. major était en moyenne plus gros que l'actuel Hippopotamus amphibius[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Hippopotamus major Cuvier, 1824[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Hippopotamus major Cuvier, 1824.
 </t>
         </is>
       </c>
